--- a/参考/日報一覧.xlsx
+++ b/参考/日報一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_16\参考\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0ED297-1FF7-4FAC-8D4D-0AB2921E58A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAEC38E-FB84-42CB-9E14-B2778097B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35025" yWindow="0" windowWidth="21870" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35730" yWindow="1080" windowWidth="21870" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報入力" sheetId="1" r:id="rId1"/>
@@ -428,16 +428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -452,7 +452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="66675"/>
+          <a:off x="9163050" y="7553325"/>
           <a:ext cx="714375" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -493,7 +493,7 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>戻る</a:t>
+            <a:t>印刷</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -772,7 +772,7 @@
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
